--- a/biology/Histoire de la zoologie et de la botanique/Station_biologique_de_Roscoff/Station_biologique_de_Roscoff.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Station_biologique_de_Roscoff/Station_biologique_de_Roscoff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Station biologique de Roscoff est un centre de recherche et d'enseignement en biologie marine et écologie marine sous tutelle de la faculté des sciences et ingénierie de Sorbonne Université et du CNRS. 
@@ -513,9 +525,11 @@
           <t>Présentation générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Située à Roscoff (Finistère), sur la côte nord de Bretagne au bord d'une mer à fortes marées, la Station biologique de Roscoff (SBR) présente dans son voisinage immédiat une exceptionnelle variété de biotopes, pour la plupart accessibles à marée basse, et peuplés d'une très grande diversité d'espèces marines animales (3 000) et végétales (700). Fondée en 1872 par le professeur titulaire de la chaire de Zoologie de la Sorbonne, Henri de Lacaze-Duthiers[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Située à Roscoff (Finistère), sur la côte nord de Bretagne au bord d'une mer à fortes marées, la Station biologique de Roscoff (SBR) présente dans son voisinage immédiat une exceptionnelle variété de biotopes, pour la plupart accessibles à marée basse, et peuplés d'une très grande diversité d'espèces marines animales (3 000) et végétales (700). Fondée en 1872 par le professeur titulaire de la chaire de Zoologie de la Sorbonne, Henri de Lacaze-Duthiers.
 Tous les personnels de la station biologique, soit environ 300 chercheurs et enseignants-chercheurs, ingénieurs et techniciens, doctorants, sont intégrés dans une ou plusieurs unités de recherche reconnues par le CNRS. Les diverses équipes de la Station biologique abordent des domaines d'étude qui vont de la structure fine et du fonctionnement de la macromolécule biologique à celui de l'océan global. Un accent particulier est mis sur les approches de génomique. Dotée d'une logistique hôtelière et d'équipements pédagogiques, la SBR permet d'enseigner la zoologie, la phycologie, l'écologie et l'océanologie côtière. Ces enseignements sont délivrés dans le cadre du Master de Sorbonne Université. La SBR édite depuis 1960 une revue scientifique internationale bilingue, les Cahiers de biologie marine (CBM). Elle accueille chaque année de 12 à 15 conférences nationales et internationales, dont les conférences Jacques-Monod.
 </t>
         </is>
@@ -545,13 +559,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 20 août 1872, le Laboratoire de zoologie expérimentale est créé par Henri de Lacaze-Duthiers, titulaire de la chaire d'anatomie comparée et de zoologie à la Sorbonne. Il s'agit de la 3e station marine créée après celles de Concarneau en 1859 et de Naples en 1872[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 20 août 1872, le Laboratoire de zoologie expérimentale est créé par Henri de Lacaze-Duthiers, titulaire de la chaire d'anatomie comparée et de zoologie à la Sorbonne. Il s'agit de la 3e station marine créée après celles de Concarneau en 1859 et de Naples en 1872.
 En 1881, le vivier est construit. Le rez-de-chaussée de l'aile nord du laboratoire Lacaze-Duthiers est construit en 1891. Le premier étage de l'aile nord du laboratoire Lacaze-Duthiers est terminé en 1906.
 En 1934, la maison du directeur est construite. En 1938, c'est le début de la construction de l'aquarium Charles-Pérez, ouvert au public en 1952 et fermé depuis 2004 pour rénovations. Construction en 1954 du bâtiment CNRS Yves-Delage (aile ouest).
 En 1958, l'Hôtel de France est acquis, hébergeant la cantine, des salles de réunion et des chambres pour les visiteurs. En 1969, le bâtiment CNRS Georges-Teissier est construit (ailes nord et est).
-En 1995, découverte de la roscovitine, kinase dépendante des cyclines (CDK)[3], devenue un des inhibiteurs de CDK à visée antitumorale le plus couramment utilisé en recherche fondamentale et appliquée[4].
+En 1995, découverte de la roscovitine, kinase dépendante des cyclines (CDK), devenue un des inhibiteurs de CDK à visée antitumorale le plus couramment utilisé en recherche fondamentale et appliquée.
 En 2006, l'hôtel "le Gulf Stream" de Roscoff est racheté afin d'augmenter les capacités d'accueil de la station et y déplacer le restaurant hébergé jusqu'alors dans l'Hôtel de France.
 En 2011, l'Institut de Génomique Marine de Roscoff est construit (IGM : agence Barré-Lambot) afin d'augmenter les capacités d'accueil, d'enseignement et la surface de recherche de la station.
 </t>
